--- a/Data/homeless population by categories.xlsx
+++ b/Data/homeless population by categories.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c1abe71445d0fcf/Documents/Data Scientist Program/Final Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c1abe71445d0fcf/Documents/GitHub/Homelessness-Final-Group-Project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3BC0822-C516-4101-81AF-F58D69EE6760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{D3BC0822-C516-4101-81AF-F58D69EE6760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E5827F9-BEFD-4791-ABE2-86CE254A33A5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -935,908 +935,831 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BV8"/>
+  <dimension ref="A1:AW8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B1" sqref="B1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" customWidth="1"/>
-    <col min="2" max="4" width="0" hidden="1" customWidth="1"/>
-    <col min="5" max="26" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
       <c r="B1">
-        <v>1980</v>
+        <v>2005</v>
       </c>
       <c r="C1">
-        <v>1981</v>
+        <v>2006</v>
       </c>
       <c r="D1">
-        <v>1982</v>
+        <v>2007</v>
       </c>
       <c r="E1">
-        <v>1983</v>
+        <v>2008</v>
       </c>
       <c r="F1">
-        <v>1984</v>
+        <v>2009</v>
       </c>
       <c r="G1">
-        <v>1985</v>
+        <v>2010</v>
       </c>
       <c r="H1">
-        <v>1986</v>
+        <v>2011</v>
       </c>
       <c r="I1">
-        <v>1987</v>
+        <v>2012</v>
       </c>
       <c r="J1">
-        <v>1988</v>
+        <v>2013</v>
       </c>
       <c r="K1">
-        <v>1989</v>
+        <v>2014</v>
       </c>
       <c r="L1">
-        <v>1990</v>
+        <v>2015</v>
       </c>
       <c r="M1">
-        <v>1991</v>
+        <v>2016</v>
       </c>
       <c r="N1">
-        <v>1992</v>
+        <v>2017</v>
       </c>
       <c r="O1">
-        <v>1993</v>
+        <v>2018</v>
       </c>
       <c r="P1">
-        <v>1994</v>
+        <v>2019</v>
       </c>
       <c r="Q1">
-        <v>1995</v>
-      </c>
-      <c r="R1">
-        <v>1996</v>
-      </c>
-      <c r="S1">
-        <v>1997</v>
+        <v>2020</v>
+      </c>
+      <c r="R1" t="s">
+        <v>0</v>
       </c>
       <c r="T1">
-        <v>1998</v>
+        <v>2015</v>
       </c>
       <c r="U1">
-        <v>1999</v>
+        <v>2016</v>
       </c>
       <c r="V1">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="W1">
-        <v>2001</v>
+        <v>2018</v>
       </c>
       <c r="X1">
-        <v>2002</v>
+        <v>2019</v>
       </c>
       <c r="Y1">
-        <v>2003</v>
-      </c>
-      <c r="Z1">
-        <v>2004</v>
-      </c>
-      <c r="AA1">
-        <v>2005</v>
+        <v>2020</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>3</v>
       </c>
       <c r="AB1">
-        <v>2006</v>
+        <v>2015</v>
       </c>
       <c r="AC1">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="AD1">
-        <v>2008</v>
+        <v>2017</v>
       </c>
       <c r="AE1">
-        <v>2009</v>
+        <v>2018</v>
       </c>
       <c r="AF1">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="AG1">
-        <v>2011</v>
-      </c>
-      <c r="AH1">
-        <v>2012</v>
-      </c>
-      <c r="AI1">
-        <v>2013</v>
+        <v>2020</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>4</v>
       </c>
       <c r="AJ1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="AK1">
+        <v>2016</v>
+      </c>
+      <c r="AL1">
+        <v>2017</v>
+      </c>
+      <c r="AM1">
+        <v>2018</v>
+      </c>
+      <c r="AN1">
+        <v>2019</v>
+      </c>
+      <c r="AO1">
+        <v>2020</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR1">
         <v>2015</v>
       </c>
-      <c r="AL1">
+      <c r="AS1">
         <v>2016</v>
       </c>
-      <c r="AM1">
+      <c r="AT1">
         <v>2017</v>
       </c>
-      <c r="AN1">
+      <c r="AU1">
         <v>2018</v>
       </c>
-      <c r="AO1">
+      <c r="AV1">
         <v>2019</v>
       </c>
-      <c r="AP1">
+      <c r="AW1">
         <v>2020</v>
       </c>
-      <c r="AQ1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS1">
-        <v>2015</v>
-      </c>
-      <c r="AT1">
-        <v>2016</v>
-      </c>
-      <c r="AU1">
-        <v>2017</v>
-      </c>
-      <c r="AV1">
-        <v>2018</v>
-      </c>
-      <c r="AW1">
-        <v>2019</v>
-      </c>
-      <c r="AX1">
-        <v>2020</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>3</v>
-      </c>
-      <c r="BA1">
-        <v>2015</v>
-      </c>
-      <c r="BB1">
-        <v>2016</v>
-      </c>
-      <c r="BC1">
-        <v>2017</v>
-      </c>
-      <c r="BD1">
-        <v>2018</v>
-      </c>
-      <c r="BE1">
-        <v>2019</v>
-      </c>
-      <c r="BF1">
-        <v>2020</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BI1">
-        <v>2015</v>
-      </c>
-      <c r="BJ1">
-        <v>2016</v>
-      </c>
-      <c r="BK1">
-        <v>2017</v>
-      </c>
-      <c r="BL1">
-        <v>2018</v>
-      </c>
-      <c r="BM1">
-        <v>2019</v>
-      </c>
-      <c r="BN1">
-        <v>2020</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BQ1">
-        <v>2015</v>
-      </c>
-      <c r="BR1">
-        <v>2016</v>
-      </c>
-      <c r="BS1">
-        <v>2017</v>
-      </c>
-      <c r="BT1">
-        <v>2018</v>
-      </c>
-      <c r="BU1">
-        <v>2019</v>
-      </c>
-      <c r="BV1">
-        <v>2020</v>
-      </c>
     </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="AA2">
+      <c r="B2">
         <v>754147</v>
       </c>
+      <c r="C2">
+        <v>759101</v>
+      </c>
+      <c r="D2">
+        <v>647258</v>
+      </c>
+      <c r="E2">
+        <v>639784</v>
+      </c>
+      <c r="F2">
+        <v>630227</v>
+      </c>
+      <c r="G2">
+        <v>637077</v>
+      </c>
+      <c r="H2">
+        <v>623788</v>
+      </c>
+      <c r="I2">
+        <v>621553</v>
+      </c>
+      <c r="J2">
+        <v>590364</v>
+      </c>
+      <c r="K2">
+        <v>576450</v>
+      </c>
+      <c r="L2">
+        <v>564708</v>
+      </c>
+      <c r="M2">
+        <v>549928</v>
+      </c>
+      <c r="N2">
+        <v>550996</v>
+      </c>
+      <c r="O2">
+        <v>552830</v>
+      </c>
+      <c r="P2">
+        <v>567715</v>
+      </c>
+      <c r="Q2">
+        <v>580466</v>
+      </c>
+      <c r="R2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>127787</v>
+      </c>
+      <c r="U2">
+        <v>120819</v>
+      </c>
+      <c r="V2">
+        <v>114529</v>
+      </c>
+      <c r="W2">
+        <v>111592</v>
+      </c>
+      <c r="X2">
+        <v>107069</v>
+      </c>
+      <c r="Y2">
+        <v>106364</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>8</v>
+      </c>
       <c r="AB2">
-        <v>759101</v>
+        <v>224344</v>
       </c>
       <c r="AC2">
-        <v>647258</v>
+        <v>217268</v>
       </c>
       <c r="AD2">
-        <v>639784</v>
+        <v>214975</v>
       </c>
       <c r="AE2">
-        <v>630227</v>
+        <v>216211</v>
       </c>
       <c r="AF2">
-        <v>637077</v>
+        <v>219911</v>
       </c>
       <c r="AG2">
-        <v>623788</v>
-      </c>
-      <c r="AH2">
-        <v>621553</v>
-      </c>
-      <c r="AI2">
-        <v>590364</v>
+        <v>223578</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>12</v>
       </c>
       <c r="AJ2">
-        <v>576450</v>
+        <v>273746</v>
       </c>
       <c r="AK2">
-        <v>564708</v>
+        <v>265660</v>
       </c>
       <c r="AL2">
-        <v>549928</v>
+        <v>259675</v>
       </c>
       <c r="AM2">
-        <v>550996</v>
+        <v>270568</v>
       </c>
       <c r="AN2">
-        <v>552830</v>
+        <v>270607</v>
       </c>
       <c r="AO2">
-        <v>567715</v>
-      </c>
-      <c r="AP2">
-        <v>580466</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>1</v>
+        <v>280612</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR2">
+        <v>452140</v>
       </c>
       <c r="AS2">
-        <v>127787</v>
+        <v>428629</v>
       </c>
       <c r="AT2">
-        <v>120819</v>
+        <v>432634</v>
       </c>
       <c r="AU2">
-        <v>114529</v>
+        <v>430354</v>
       </c>
       <c r="AV2">
-        <v>111592</v>
+        <v>443100</v>
       </c>
       <c r="AW2">
-        <v>107069</v>
-      </c>
-      <c r="AX2">
-        <v>106364</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA2">
-        <v>224344</v>
-      </c>
-      <c r="BB2">
-        <v>217268</v>
-      </c>
-      <c r="BC2">
-        <v>214975</v>
-      </c>
-      <c r="BD2">
-        <v>216211</v>
-      </c>
-      <c r="BE2">
-        <v>219911</v>
-      </c>
-      <c r="BF2">
-        <v>223578</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>12</v>
-      </c>
-      <c r="BI2">
-        <v>273746</v>
-      </c>
-      <c r="BJ2">
-        <v>265660</v>
-      </c>
-      <c r="BK2">
-        <v>259675</v>
-      </c>
-      <c r="BL2">
-        <v>270568</v>
-      </c>
-      <c r="BM2">
-        <v>270607</v>
-      </c>
-      <c r="BN2">
-        <v>280612</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>18</v>
-      </c>
-      <c r="BQ2">
-        <v>452140</v>
-      </c>
-      <c r="BR2">
-        <v>428629</v>
-      </c>
-      <c r="BS2">
-        <v>432634</v>
-      </c>
-      <c r="BT2">
-        <v>430354</v>
-      </c>
-      <c r="BU2">
-        <v>443100</v>
-      </c>
-      <c r="BV2">
         <v>450107</v>
       </c>
     </row>
-    <row r="3" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="AA3">
+      <c r="B3">
         <v>415366</v>
       </c>
+      <c r="C3">
+        <v>427971</v>
+      </c>
+      <c r="D3">
+        <v>391401</v>
+      </c>
+      <c r="E3">
+        <v>386361</v>
+      </c>
+      <c r="F3">
+        <v>403308</v>
+      </c>
+      <c r="G3">
+        <v>403543</v>
+      </c>
+      <c r="H3">
+        <v>392316</v>
+      </c>
+      <c r="I3">
+        <v>390155</v>
+      </c>
+      <c r="J3">
+        <v>394698</v>
+      </c>
+      <c r="K3">
+        <v>401051</v>
+      </c>
+      <c r="L3">
+        <v>391440</v>
+      </c>
+      <c r="M3">
+        <v>373571</v>
+      </c>
+      <c r="N3">
+        <v>360867</v>
+      </c>
+      <c r="O3">
+        <v>358363</v>
+      </c>
+      <c r="P3">
+        <v>356422</v>
+      </c>
+      <c r="Q3">
+        <v>354386</v>
+      </c>
+      <c r="R3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <v>52973</v>
+      </c>
+      <c r="U3">
+        <v>50001</v>
+      </c>
+      <c r="V3">
+        <v>50992</v>
+      </c>
+      <c r="W3">
+        <v>48319</v>
+      </c>
+      <c r="X3">
+        <v>45629</v>
+      </c>
+      <c r="Y3">
+        <v>45243</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>9</v>
+      </c>
       <c r="AB3">
-        <v>427971</v>
+        <v>339075</v>
       </c>
       <c r="AC3">
-        <v>391401</v>
+        <v>330890</v>
       </c>
       <c r="AD3">
-        <v>386361</v>
+        <v>333049</v>
       </c>
       <c r="AE3">
-        <v>403308</v>
+        <v>332925</v>
       </c>
       <c r="AF3">
-        <v>403543</v>
+        <v>343187</v>
       </c>
       <c r="AG3">
-        <v>392316</v>
-      </c>
-      <c r="AH3">
-        <v>390155</v>
-      </c>
-      <c r="AI3">
-        <v>394698</v>
+        <v>352211</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>13</v>
       </c>
       <c r="AJ3">
-        <v>401051</v>
+        <v>227937</v>
       </c>
       <c r="AK3">
-        <v>391440</v>
+        <v>215177</v>
       </c>
       <c r="AL3">
-        <v>373571</v>
+        <v>223690</v>
       </c>
       <c r="AM3">
-        <v>360867</v>
+        <v>219809</v>
       </c>
       <c r="AN3">
-        <v>358363</v>
+        <v>225735</v>
       </c>
       <c r="AO3">
-        <v>356422</v>
-      </c>
-      <c r="AP3">
-        <v>354386</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>2</v>
+        <v>228796</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR3">
+        <v>112568</v>
       </c>
       <c r="AS3">
-        <v>52973</v>
+        <v>121299</v>
       </c>
       <c r="AT3">
-        <v>50001</v>
+        <v>118362</v>
       </c>
       <c r="AU3">
-        <v>50992</v>
+        <v>122476</v>
       </c>
       <c r="AV3">
-        <v>48319</v>
+        <v>124615</v>
       </c>
       <c r="AW3">
-        <v>45629</v>
-      </c>
-      <c r="AX3">
-        <v>45243</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA3">
-        <v>339075</v>
-      </c>
-      <c r="BB3">
-        <v>330890</v>
-      </c>
-      <c r="BC3">
-        <v>333049</v>
-      </c>
-      <c r="BD3">
-        <v>332925</v>
-      </c>
-      <c r="BE3">
-        <v>343187</v>
-      </c>
-      <c r="BF3">
-        <v>352211</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>13</v>
-      </c>
-      <c r="BI3">
-        <v>227937</v>
-      </c>
-      <c r="BJ3">
-        <v>215177</v>
-      </c>
-      <c r="BK3">
-        <v>223690</v>
-      </c>
-      <c r="BL3">
-        <v>219809</v>
-      </c>
-      <c r="BM3">
-        <v>225735</v>
-      </c>
-      <c r="BN3">
-        <v>228796</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>19</v>
-      </c>
-      <c r="BQ3">
-        <v>112568</v>
-      </c>
-      <c r="BR3">
-        <v>121299</v>
-      </c>
-      <c r="BS3">
-        <v>118362</v>
-      </c>
-      <c r="BT3">
-        <v>122476</v>
-      </c>
-      <c r="BU3">
-        <v>124615</v>
-      </c>
-      <c r="BV3">
         <v>130348</v>
       </c>
     </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="AA4">
+      <c r="B4">
         <v>0</v>
       </c>
+      <c r="C4">
+        <v>224293</v>
+      </c>
+      <c r="D4">
+        <v>213073</v>
+      </c>
+      <c r="E4">
+        <v>204855</v>
+      </c>
+      <c r="F4">
+        <v>215995</v>
+      </c>
+      <c r="G4">
+        <v>212218</v>
+      </c>
+      <c r="H4">
+        <v>205834</v>
+      </c>
+      <c r="I4">
+        <v>199159</v>
+      </c>
+      <c r="J4">
+        <v>203127</v>
+      </c>
+      <c r="K4">
+        <v>209148</v>
+      </c>
+      <c r="L4">
+        <v>205616</v>
+      </c>
+      <c r="M4">
+        <v>198008</v>
+      </c>
+      <c r="N4">
+        <v>193144</v>
+      </c>
+      <c r="O4">
+        <v>194340</v>
+      </c>
+      <c r="P4">
+        <v>199531</v>
+      </c>
+      <c r="Q4">
+        <v>199478</v>
+      </c>
+      <c r="R4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T4">
+        <v>383948</v>
+      </c>
+      <c r="U4">
+        <v>379108</v>
+      </c>
+      <c r="V4">
+        <v>385475</v>
+      </c>
+      <c r="W4">
+        <v>392919</v>
+      </c>
+      <c r="X4">
+        <v>415017</v>
+      </c>
+      <c r="Y4">
+        <v>428859</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>10</v>
+      </c>
       <c r="AB4">
-        <v>224293</v>
+        <v>1289</v>
       </c>
       <c r="AC4">
-        <v>213073</v>
+        <v>1770</v>
       </c>
       <c r="AD4">
-        <v>204855</v>
+        <v>2088</v>
       </c>
       <c r="AE4">
-        <v>215995</v>
+        <v>2521</v>
       </c>
       <c r="AF4">
-        <v>212218</v>
+        <v>3255</v>
       </c>
       <c r="AG4">
-        <v>205834</v>
-      </c>
-      <c r="AH4">
-        <v>199159</v>
-      </c>
-      <c r="AI4">
-        <v>203127</v>
+        <v>3161</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>14</v>
       </c>
       <c r="AJ4">
-        <v>209148</v>
+        <v>6074</v>
       </c>
       <c r="AK4">
-        <v>205616</v>
+        <v>5603</v>
       </c>
       <c r="AL4">
-        <v>198008</v>
+        <v>6700</v>
       </c>
       <c r="AM4">
-        <v>193144</v>
+        <v>6643</v>
       </c>
       <c r="AN4">
-        <v>194340</v>
+        <v>7228</v>
       </c>
       <c r="AO4">
-        <v>199531</v>
-      </c>
-      <c r="AP4">
-        <v>199478</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AS4">
-        <v>383948</v>
-      </c>
-      <c r="AT4">
-        <v>379108</v>
-      </c>
-      <c r="AU4">
-        <v>385475</v>
-      </c>
-      <c r="AV4">
-        <v>392919</v>
-      </c>
-      <c r="AW4">
-        <v>415017</v>
-      </c>
-      <c r="AX4">
-        <v>428859</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>10</v>
-      </c>
-      <c r="BA4">
-        <v>1289</v>
-      </c>
-      <c r="BB4">
-        <v>1770</v>
-      </c>
-      <c r="BC4">
-        <v>2088</v>
-      </c>
-      <c r="BD4">
-        <v>2521</v>
-      </c>
-      <c r="BE4">
-        <v>3255</v>
-      </c>
-      <c r="BF4">
-        <v>3161</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>14</v>
-      </c>
-      <c r="BI4">
-        <v>6074</v>
-      </c>
-      <c r="BJ4">
-        <v>5603</v>
-      </c>
-      <c r="BK4">
-        <v>6700</v>
-      </c>
-      <c r="BL4">
-        <v>6643</v>
-      </c>
-      <c r="BM4">
-        <v>7228</v>
-      </c>
-      <c r="BN4">
         <v>7638</v>
       </c>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="AA5">
+      <c r="B5">
         <v>0</v>
       </c>
-      <c r="AB5">
+      <c r="C5">
         <v>203678</v>
       </c>
-      <c r="AC5">
+      <c r="D5">
         <v>178328</v>
       </c>
+      <c r="E5">
+        <v>181506</v>
+      </c>
+      <c r="F5">
+        <v>187313</v>
+      </c>
+      <c r="G5">
+        <v>191325</v>
+      </c>
+      <c r="H5">
+        <v>186482</v>
+      </c>
+      <c r="I5">
+        <v>190996</v>
+      </c>
+      <c r="J5">
+        <v>191571</v>
+      </c>
+      <c r="K5">
+        <v>191903</v>
+      </c>
+      <c r="L5">
+        <v>185824</v>
+      </c>
+      <c r="M5">
+        <v>175563</v>
+      </c>
+      <c r="N5">
+        <v>167723</v>
+      </c>
+      <c r="O5">
+        <v>164023</v>
+      </c>
+      <c r="P5">
+        <v>156891</v>
+      </c>
+      <c r="Q5">
+        <v>154908</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>11</v>
+      </c>
       <c r="AD5">
-        <v>181506</v>
+        <v>884</v>
       </c>
       <c r="AE5">
-        <v>187313</v>
+        <v>1173</v>
       </c>
       <c r="AF5">
-        <v>191325</v>
+        <v>1362</v>
       </c>
       <c r="AG5">
-        <v>186482</v>
-      </c>
-      <c r="AH5">
-        <v>190996</v>
-      </c>
-      <c r="AI5">
-        <v>191571</v>
+        <v>1460</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>15</v>
       </c>
       <c r="AJ5">
-        <v>191903</v>
+        <v>15136</v>
       </c>
       <c r="AK5">
-        <v>185824</v>
+        <v>15229</v>
       </c>
       <c r="AL5">
-        <v>175563</v>
+        <v>16741</v>
       </c>
       <c r="AM5">
-        <v>167723</v>
+        <v>15414</v>
       </c>
       <c r="AN5">
-        <v>164023</v>
+        <v>17966</v>
       </c>
       <c r="AO5">
-        <v>156891</v>
-      </c>
-      <c r="AP5">
-        <v>154908</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>11</v>
-      </c>
-      <c r="BC5">
-        <v>884</v>
-      </c>
-      <c r="BD5">
-        <v>1173</v>
-      </c>
-      <c r="BE5">
-        <v>1362</v>
-      </c>
-      <c r="BF5">
-        <v>1460</v>
-      </c>
-      <c r="BG5" t="s">
-        <v>15</v>
-      </c>
-      <c r="BI5">
-        <v>15136</v>
-      </c>
-      <c r="BJ5">
-        <v>15229</v>
-      </c>
-      <c r="BK5">
-        <v>16741</v>
-      </c>
-      <c r="BL5">
-        <v>15414</v>
-      </c>
-      <c r="BM5">
-        <v>17966</v>
-      </c>
-      <c r="BN5">
         <v>18935</v>
       </c>
     </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="AA6">
+      <c r="B6">
         <v>338781</v>
       </c>
-      <c r="AB6">
+      <c r="C6">
         <v>331130</v>
       </c>
-      <c r="AC6">
+      <c r="D6">
         <v>255857</v>
       </c>
-      <c r="AD6">
+      <c r="E6">
         <v>253423</v>
       </c>
-      <c r="AE6">
+      <c r="F6">
         <v>226919</v>
       </c>
-      <c r="AF6">
+      <c r="G6">
         <v>233534</v>
       </c>
-      <c r="AG6">
+      <c r="H6">
         <v>231472</v>
       </c>
-      <c r="AH6">
+      <c r="I6">
         <v>231398</v>
       </c>
-      <c r="AI6">
+      <c r="J6">
         <v>195666</v>
       </c>
+      <c r="K6">
+        <v>175399</v>
+      </c>
+      <c r="L6">
+        <v>173268</v>
+      </c>
+      <c r="M6">
+        <v>176357</v>
+      </c>
+      <c r="N6">
+        <v>190129</v>
+      </c>
+      <c r="O6">
+        <v>194467</v>
+      </c>
+      <c r="P6">
+        <v>211293</v>
+      </c>
+      <c r="Q6">
+        <v>226080</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>16</v>
+      </c>
       <c r="AJ6">
-        <v>175399</v>
+        <v>8827</v>
       </c>
       <c r="AK6">
-        <v>173268</v>
+        <v>8734</v>
       </c>
       <c r="AL6">
-        <v>176357</v>
+        <v>8515</v>
       </c>
       <c r="AM6">
-        <v>190129</v>
+        <v>8039</v>
       </c>
       <c r="AN6">
-        <v>194467</v>
+        <v>9311</v>
       </c>
       <c r="AO6">
-        <v>211293</v>
-      </c>
-      <c r="AP6">
-        <v>226080</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>16</v>
-      </c>
-      <c r="BI6">
-        <v>8827</v>
-      </c>
-      <c r="BJ6">
-        <v>8734</v>
-      </c>
-      <c r="BK6">
-        <v>8515</v>
-      </c>
-      <c r="BL6">
-        <v>8039</v>
-      </c>
-      <c r="BM6">
-        <v>9311</v>
-      </c>
-      <c r="BN6">
         <v>8794</v>
       </c>
     </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="AA7">
+      <c r="B7">
         <v>223027</v>
       </c>
-      <c r="AB7">
+      <c r="C7">
         <v>228287</v>
       </c>
-      <c r="AC7">
+      <c r="D7">
         <v>199627</v>
       </c>
-      <c r="AD7">
+      <c r="E7">
         <v>199670</v>
       </c>
-      <c r="AE7">
+      <c r="F7">
         <v>176136</v>
       </c>
-      <c r="AF7">
+      <c r="G7">
         <v>182922</v>
       </c>
-      <c r="AG7">
+      <c r="H7">
         <v>181779</v>
       </c>
-      <c r="AH7">
+      <c r="I7">
         <v>182997</v>
       </c>
-      <c r="AI7">
+      <c r="J7">
         <v>165047</v>
       </c>
+      <c r="K7">
+        <v>151041</v>
+      </c>
+      <c r="L7">
+        <v>152806</v>
+      </c>
+      <c r="M7">
+        <v>157204</v>
+      </c>
+      <c r="N7">
+        <v>173441</v>
+      </c>
+      <c r="O7">
+        <v>178077</v>
+      </c>
+      <c r="P7">
+        <v>196514</v>
+      </c>
+      <c r="Q7">
+        <v>209413</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>17</v>
+      </c>
       <c r="AJ7">
-        <v>151041</v>
+        <v>32988</v>
       </c>
       <c r="AK7">
-        <v>152806</v>
+        <v>39525</v>
       </c>
       <c r="AL7">
-        <v>157204</v>
+        <v>35675</v>
       </c>
       <c r="AM7">
-        <v>173441</v>
+        <v>32357</v>
       </c>
       <c r="AN7">
-        <v>178077</v>
+        <v>36868</v>
       </c>
       <c r="AO7">
-        <v>196514</v>
-      </c>
-      <c r="AP7">
-        <v>209413</v>
-      </c>
-      <c r="BG7" t="s">
-        <v>17</v>
-      </c>
-      <c r="BI7">
-        <v>32988</v>
-      </c>
-      <c r="BJ7">
-        <v>39525</v>
-      </c>
-      <c r="BK7">
-        <v>35675</v>
-      </c>
-      <c r="BL7">
-        <v>32357</v>
-      </c>
-      <c r="BM7">
-        <v>36868</v>
-      </c>
-      <c r="BN7">
         <v>35680</v>
       </c>
     </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="AA8">
+      <c r="B8">
         <v>115754</v>
       </c>
-      <c r="AB8">
+      <c r="C8">
         <v>102843</v>
       </c>
-      <c r="AC8">
+      <c r="D8">
         <v>56230</v>
       </c>
-      <c r="AD8">
+      <c r="E8">
         <v>53753</v>
       </c>
-      <c r="AE8">
+      <c r="F8">
         <v>50783</v>
       </c>
-      <c r="AF8">
+      <c r="G8">
         <v>50612</v>
       </c>
-      <c r="AG8">
+      <c r="H8">
         <v>49693</v>
       </c>
-      <c r="AH8">
+      <c r="I8">
         <v>48401</v>
       </c>
-      <c r="AI8">
+      <c r="J8">
         <v>30619</v>
       </c>
-      <c r="AJ8">
+      <c r="K8">
         <v>24358</v>
       </c>
-      <c r="AK8">
+      <c r="L8">
         <v>20462</v>
       </c>
-      <c r="AL8">
+      <c r="M8">
         <v>19153</v>
       </c>
-      <c r="AM8">
+      <c r="N8">
         <v>16688</v>
       </c>
-      <c r="AN8">
+      <c r="O8">
         <v>16390</v>
       </c>
-      <c r="AO8">
+      <c r="P8">
         <v>14779</v>
       </c>
-      <c r="AP8">
+      <c r="Q8">
         <v>16667</v>
       </c>
     </row>

--- a/Data/homeless population by categories.xlsx
+++ b/Data/homeless population by categories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c1abe71445d0fcf/Documents/GitHub/Homelessness-Final-Group-Project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{D3BC0822-C516-4101-81AF-F58D69EE6760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E5827F9-BEFD-4791-ABE2-86CE254A33A5}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{D3BC0822-C516-4101-81AF-F58D69EE6760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50DBCC7D-6948-4F81-82CF-C34E743F6E47}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">    By age</t>
   </si>
@@ -91,10 +91,16 @@
     <t>Unsheltered total</t>
   </si>
   <si>
-    <t xml:space="preserve">Individuals  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">People in families with children </t>
+    <t xml:space="preserve">unshelter Individuals  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">unshelter People in families with children </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shelter Individuals  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shelter People in families with children </t>
   </si>
 </sst>
 </file>
@@ -938,7 +944,7 @@
   <dimension ref="A1:AW8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K1048576"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1359,7 +1365,7 @@
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1475,7 +1481,7 @@
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>0</v>

--- a/Data/homeless population by categories.xlsx
+++ b/Data/homeless population by categories.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="36" documentId="8_{D3BC0822-C516-4101-81AF-F58D69EE6760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50DBCC7D-6948-4F81-82CF-C34E743F6E47}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="465" yWindow="735" windowWidth="10080" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="homeless_population_usafacts" sheetId="1" r:id="rId1"/>
@@ -944,7 +944,7 @@
   <dimension ref="A1:AW8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/homeless population by categories.xlsx
+++ b/Data/homeless population by categories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c1abe71445d0fcf/Documents/GitHub/Homelessness-Final-Group-Project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{D3BC0822-C516-4101-81AF-F58D69EE6760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50DBCC7D-6948-4F81-82CF-C34E743F6E47}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{D3BC0822-C516-4101-81AF-F58D69EE6760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25CA83CA-775A-477B-BECB-686D4AF5C002}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="735" windowWidth="10080" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="homeless_population_usafacts" sheetId="1" r:id="rId1"/>
@@ -94,13 +94,13 @@
     <t xml:space="preserve">unshelter Individuals  </t>
   </si>
   <si>
-    <t xml:space="preserve">unshelter People in families with children </t>
-  </si>
-  <si>
     <t xml:space="preserve">shelter Individuals  </t>
   </si>
   <si>
-    <t xml:space="preserve">shelter People in families with children </t>
+    <t xml:space="preserve">unshelter families with children </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shelter families with children </t>
   </si>
 </sst>
 </file>
@@ -944,7 +944,7 @@
   <dimension ref="A1:AW8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1718,7 +1718,7 @@
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>115754</v>
